--- a/pytester/pytester/data4test/simple_numbers/simple_numbers_result.xlsx
+++ b/pytester/pytester/data4test/simple_numbers/simple_numbers_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Vekhov\WORK\algo\AlgoOtus\pytester\pytester\data4test\simple_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24599CAC-E8AF-4A1E-B125-9142108A5B03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200C3553-683C-41A5-932B-0BE354478ACA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="119">
   <si>
     <t>time sec</t>
   </si>
@@ -334,6 +334,54 @@
   </si>
   <si>
     <t>2020-02-06 09:10:36.420209</t>
+  </si>
+  <si>
+    <t>find_simple_eratosfen_memopt</t>
+  </si>
+  <si>
+    <t>0.0027307</t>
+  </si>
+  <si>
+    <t>2020-02-07 15:02:05.803531</t>
+  </si>
+  <si>
+    <t>0.0028026</t>
+  </si>
+  <si>
+    <t>2020-02-07 15:02:05.806037</t>
+  </si>
+  <si>
+    <t>0.0022225</t>
+  </si>
+  <si>
+    <t>2020-02-07 15:02:05.808545</t>
+  </si>
+  <si>
+    <t>0.0031309</t>
+  </si>
+  <si>
+    <t>2020-02-07 15:02:05.811553</t>
+  </si>
+  <si>
+    <t>0.0062043</t>
+  </si>
+  <si>
+    <t>2020-02-07 15:02:05.818071</t>
+  </si>
+  <si>
+    <t>0.01344</t>
+  </si>
+  <si>
+    <t>2020-02-07 15:02:05.831693</t>
+  </si>
+  <si>
+    <t>0.2914</t>
+  </si>
+  <si>
+    <t>2020-02-07 15:02:06.122937</t>
+  </si>
+  <si>
+    <t>2020-02-07 15:02:09.845518</t>
   </si>
 </sst>
 </file>
@@ -690,23 +738,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" customWidth="1"/>
     <col min="2" max="2" width="15.36328125" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" customWidth="1"/>
     <col min="4" max="4" width="11.54296875"/>
     <col min="5" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="1025" width="11.54296875"/>
+    <col min="7" max="7" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +762,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -734,8 +781,11 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -754,8 +804,11 @@
       <c r="F3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -774,8 +827,11 @@
       <c r="F4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -794,8 +850,11 @@
       <c r="F5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -814,8 +873,11 @@
       <c r="F6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -834,8 +896,11 @@
       <c r="F7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -854,8 +919,11 @@
       <c r="F8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -874,8 +942,11 @@
       <c r="F9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -894,8 +965,11 @@
       <c r="F10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>3.7216999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -905,7 +979,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -925,7 +999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -945,7 +1019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -965,7 +1039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1748,6 +1822,166 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>3.7216999999999998</v>
+      </c>
+      <c r="F67" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
